--- a/doc/23_プログラム設計/テーブル設計書.xlsx
+++ b/doc/23_プログラム設計/テーブル設計書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Data-server\704教室\2015年11月生\桂フォルダ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC729\kengo_tarutani\2015_11_willands\2015_11_willands\doc\23_プログラム設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10650" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10650" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザ認証" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="ユーザからのコメント" sheetId="3" r:id="rId6"/>
     <sheet name="ブックマークテーブル" sheetId="7" r:id="rId7"/>
     <sheet name="良いね" sheetId="8" r:id="rId8"/>
+    <sheet name="カテゴリ一覧" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
   <si>
     <t>カラム</t>
     <phoneticPr fontId="1"/>
@@ -288,6 +289,26 @@
   </si>
   <si>
     <t>post_like</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CATE_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CATE_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -621,7 +642,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -690,7 +711,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -765,7 +786,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -863,7 +884,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -938,7 +959,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C22:C23"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -983,7 +1004,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1028,7 +1049,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1064,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1095,4 +1116,44 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/23_プログラム設計/テーブル設計書.xlsx
+++ b/doc/23_プログラム設計/テーブル設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10650" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10650"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザ認証" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
   <si>
     <t>カラム</t>
     <phoneticPr fontId="1"/>
@@ -168,147 +168,245 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>P_PEAPLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P_PRICE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P_SDAY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P_FDAY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P_OFLAG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P_KEY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>post_check_in</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C_POSIX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C_POSIY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C_DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C_COMMENT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>post_photo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C_PHOTO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_post_comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UP_COMMENT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bookmark</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P_COUNT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>post_like</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CATE_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CATE_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出発日</t>
+    <rPh sb="0" eb="2">
+      <t>シュッパツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帰宅日</t>
+    <rPh sb="0" eb="2">
+      <t>キタク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>価格</t>
+    <rPh sb="0" eb="2">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参加人数</t>
+    <rPh sb="0" eb="2">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>P_AWORD</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>P_PEAPLE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P_PRICE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P_SDAY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P_FDAY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P_OFLAG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P_KEY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>post_check_in</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DOUBLE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C_POSIX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C_POSIY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C_DATE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C_COMMENT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>post_photo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C_PHOTO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_post_comment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UP_COMMENT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bookmark</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P_COUNT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>post_like</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CATE_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CATE_NAME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VARCHAR(30)</t>
+    <t>後書き</t>
+    <rPh sb="0" eb="2">
+      <t>アトガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X座標</t>
+    <rPh sb="1" eb="3">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y座標</t>
+    <rPh sb="1" eb="3">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年月日</t>
+    <rPh sb="0" eb="2">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックインID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿ID</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -641,7 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -711,7 +809,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -783,20 +881,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -804,70 +902,97 @@
         <v>28</v>
       </c>
       <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
@@ -881,76 +1006,95 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
       </c>
       <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>46</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
+      <c r="E7" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -966,12 +1110,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -979,7 +1123,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -987,7 +1131,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1004,22 +1148,22 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -1027,15 +1171,15 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
         <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1049,19 +1193,19 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1093,23 +1237,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1122,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1133,23 +1277,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/doc/23_プログラム設計/テーブル設計書.xlsx
+++ b/doc/23_プログラム設計/テーブル設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10650" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザ認証" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="83">
   <si>
     <t>カラム</t>
     <phoneticPr fontId="1"/>
@@ -407,6 +407,10 @@
     <rPh sb="0" eb="2">
       <t>トウコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(500)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -739,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1147,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1179,7 +1183,7 @@
         <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/doc/23_プログラム設計/テーブル設計書.xlsx
+++ b/doc/23_プログラム設計/テーブル設計書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC729\kengo_tarutani\2015_11_willands\2015_11_willands\doc\23_プログラム設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC729\2015_11_willands\doc\23_プログラム設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10650" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10650" tabRatio="765"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザ認証" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="ブックマークテーブル" sheetId="7" r:id="rId7"/>
     <sheet name="良いね" sheetId="8" r:id="rId8"/>
     <sheet name="カテゴリ一覧" sheetId="10" r:id="rId9"/>
+    <sheet name="おすすめ記事" sheetId="17" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
   <si>
     <t>カラム</t>
     <phoneticPr fontId="1"/>
@@ -55,10 +56,6 @@
   </si>
   <si>
     <t>INT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VARCHAR</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -212,10 +209,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>C_ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -411,6 +404,37 @@
   </si>
   <si>
     <t>VARCHAR(500)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>post_pickup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おすすめ記事ID</t>
+    <rPh sb="4" eb="6">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PPU_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(3000)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -743,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -762,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -779,10 +803,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -790,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -798,7 +822,66 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -820,12 +903,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -833,48 +916,48 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -888,164 +971,177 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
         <v>79</v>
@@ -1053,46 +1149,57 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1107,38 +1214,41 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1159,31 +1269,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1204,12 +1314,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1217,7 +1327,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1241,23 +1351,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
         <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
         <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1281,23 +1391,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
         <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
         <v>64</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/doc/23_プログラム設計/テーブル設計書.xlsx
+++ b/doc/23_プログラム設計/テーブル設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC729\2015_11_willands\doc\23_プログラム設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taruken555\2015_11_willands\doc\23_プログラム設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
     <sheet name="投稿写真" sheetId="6" r:id="rId5"/>
     <sheet name="ユーザからのコメント" sheetId="3" r:id="rId6"/>
     <sheet name="ブックマークテーブル" sheetId="7" r:id="rId7"/>
-    <sheet name="良いね" sheetId="8" r:id="rId8"/>
+    <sheet name="いいね" sheetId="8" r:id="rId8"/>
     <sheet name="カテゴリ一覧" sheetId="10" r:id="rId9"/>
     <sheet name="おすすめ記事" sheetId="17" r:id="rId10"/>
   </sheets>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="120">
   <si>
     <t>カラム</t>
     <phoneticPr fontId="1"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>キー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>設定</t>
     <rPh sb="0" eb="2">
       <t>セッテイ</t>
@@ -137,15 +133,99 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>VARCHAR(1000)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P_CAT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P_TITLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P_PEAPLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P_PRICE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P_SDAY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P_FDAY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P_OFLAG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P_KEY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>AI</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VARCHAR(1000)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>post</t>
+    <t>DOUBLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C_POSIX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C_POSIY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C_DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C_COMMENT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C_PHOTO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UP_COMMENT</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -157,99 +237,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>P_CAT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P_TITLE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P_PEAPLE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P_PRICE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P_SDAY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P_FDAY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P_OFLAG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P_KEY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>post_check_in</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DOUBLE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C_POSIX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C_POSIY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C_DATE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C_COMMENT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>post_photo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C_PHOTO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_post_comment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UP_COMMENT</t>
+    <t>P_COUNT</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -257,31 +245,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bookmark</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P_COUNT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>INT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>post_like</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cate</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -411,10 +375,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>post_pickup</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>おすすめ記事ID</t>
     <rPh sb="4" eb="6">
       <t>キジ</t>
@@ -435,6 +395,252 @@
   </si>
   <si>
     <t>VARCHAR(3000)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーＩＤ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーＩＤ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年齢</t>
+    <rPh sb="0" eb="2">
+      <t>ネンレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己紹介</t>
+    <rPh sb="0" eb="2">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコン画像ファイル名</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公開フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主キー</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Not Null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー認証</t>
+    <rPh sb="4" eb="6">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論理テーブル名</t>
+    <rPh sb="0" eb="2">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理テーブル名</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>post_check_in</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>post_photo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿写真</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックインＩＤ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿ＩＤ</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真パス</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_post_comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーコメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーＩＤ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bookmark</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブックマーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーＩＤ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>post_like</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ一覧</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリＩＤ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>post_pickup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おすすめ記事</t>
+    <rPh sb="4" eb="6">
+      <t>キジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -467,12 +673,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -481,8 +696,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -765,37 +983,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -803,26 +1040,46 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -834,54 +1091,90 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" t="s">
-        <v>79</v>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -893,71 +1186,108 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
+      <c r="C8" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -968,130 +1298,169 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1103,103 +1472,136 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>76</v>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1211,44 +1613,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1259,41 +1702,86 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1304,33 +1792,74 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1341,33 +1870,73 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1378,36 +1947,84 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>64</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
